--- a/過去問題/2018秋/午前カテゴリ分け.xlsx
+++ b/過去問題/2018秋/午前カテゴリ分け.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDY\ap\過去問題\2018秋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\ap\過去問題\2018秋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CD560-5A2B-428B-9B3C-E0167DBF5D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18A9A9-3AFC-4205-AD94-45A283F6F376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="27660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリ分け" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -2569,7 +2569,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
